--- a/Visualization Datasets/student debt percent, enrollment, and per capita debt.xlsx
+++ b/Visualization Datasets/student debt percent, enrollment, and per capita debt.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_Work\Python Projects\DS105-Data-Storage\Visualization Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C261AB9-8606-4FA2-9EB7-CA77D11DDF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD59A5D-F553-4317-A57C-882E94E79036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="student debt percent, enrollmen" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Student Debt Percentage</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>14.89</t>
-  </si>
-  <si>
-    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -952,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +965,7 @@
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -988,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2003</v>
       </c>
@@ -1008,7 +1005,7 @@
         <v>16.91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2004</v>
       </c>
@@ -1028,7 +1025,7 @@
         <v>17.27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2005</v>
       </c>
@@ -1048,7 +1045,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2006</v>
       </c>
@@ -1067,11 +1064,8 @@
       <c r="F5">
         <v>17.760000000000002</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2007</v>
       </c>
@@ -1090,12 +1084,8 @@
       <c r="F6">
         <v>18.25</v>
       </c>
-      <c r="K6">
-        <f>SLOPE(C2:C17,A2:A17)</f>
-        <v>496.81176470588235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2008</v>
       </c>
@@ -1115,7 +1105,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2009</v>
       </c>
@@ -1135,7 +1125,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2010</v>
       </c>
@@ -1155,7 +1145,7 @@
         <v>21.02</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2011</v>
       </c>
@@ -1175,7 +1165,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2012</v>
       </c>
@@ -1195,7 +1185,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2013</v>
       </c>
@@ -1215,7 +1205,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2014</v>
       </c>
@@ -1235,7 +1225,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2015</v>
       </c>
@@ -1255,7 +1245,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2016</v>
       </c>
@@ -1275,7 +1265,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2017</v>
       </c>
